--- a/OHMI Keeper League/Reports/OHMI Keeper League History Backup.xlsx
+++ b/OHMI Keeper League/Reports/OHMI Keeper League History Backup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\OHMI Keeper League\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\OHMI Keeper League\OHMI Keeper League\OHMI Keeper League\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3171BC-2B2C-4AD5-B292-18AAE5186917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A245A9F2-3B3E-420F-8228-1F453F33559F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{1AD674E2-9FC2-4BF1-99C5-DC8373CC2B72}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="634">
   <si>
     <t>2019 Draft Results</t>
   </si>
@@ -641,7 +641,7 @@
     <t>Austin Ekeler (8)</t>
   </si>
   <si>
-    <t>Tyler Boyd (3)</t>
+    <t>Tyler Boyd (4)</t>
   </si>
   <si>
     <t>Dede Westbrook (7)</t>
@@ -683,7 +683,7 @@
     <t>AJ Brown (15)</t>
   </si>
   <si>
-    <t>Devin Singletary (14)</t>
+    <t>Devin Singletary (15)</t>
   </si>
   <si>
     <t>Raheem Mostert (15)</t>
@@ -872,9 +872,6 @@
     <t>Andrew Luck (4)</t>
   </si>
   <si>
-    <t>Tyler Boyd (4)</t>
-  </si>
-  <si>
     <t>Matt Ryan (5)</t>
   </si>
   <si>
@@ -1217,6 +1214,9 @@
     <t>Clyde Edwards Helaire</t>
   </si>
   <si>
+    <t>Odell Beckham</t>
+  </si>
+  <si>
     <t>Jonathan Taylor</t>
   </si>
   <si>
@@ -1418,12 +1418,21 @@
     <t>Stefon Diggs (4)</t>
   </si>
   <si>
+    <t>Kyler Murray (7)</t>
+  </si>
+  <si>
     <t>Cam Akers (5)</t>
   </si>
   <si>
+    <t>Justin Jefferson (9)</t>
+  </si>
+  <si>
     <t>Miles Sanders (6)</t>
   </si>
   <si>
+    <t>Chase Claypool (15)</t>
+  </si>
+  <si>
     <t>Josh Allen (5)</t>
   </si>
   <si>
@@ -1439,7 +1448,7 @@
     <t>Phillip Rivers (15)</t>
   </si>
   <si>
-    <t>Deshaun Watson (15)</t>
+    <t>Deshaun Watson (5)</t>
   </si>
   <si>
     <t>Russell Wilson (7)</t>
@@ -1460,9 +1469,6 @@
     <t>Corey Davis (15)</t>
   </si>
   <si>
-    <t>Davante Adams (15)</t>
-  </si>
-  <si>
     <t>DJ Chark (3)</t>
   </si>
   <si>
@@ -1484,9 +1490,6 @@
     <t>Mike Williams (9)</t>
   </si>
   <si>
-    <t>Chase Claypool (15)</t>
-  </si>
-  <si>
     <t>Tyler Lockett (2)</t>
   </si>
   <si>
@@ -1559,13 +1562,13 @@
     <t>Ito Smith (15)</t>
   </si>
   <si>
-    <t>DAndre Swift (15)</t>
+    <t>DAndre Swift (4)</t>
   </si>
   <si>
     <t>Melvin Gordon (NA)</t>
   </si>
   <si>
-    <t>Alexander Mattison (15)</t>
+    <t>Alexander Mattison (8)</t>
   </si>
   <si>
     <t>Jonathan Taylor (NA)</t>
@@ -1586,6 +1589,9 @@
     <t>Jeff Wilson (15)</t>
   </si>
   <si>
+    <t>Darrell Henderson (11)</t>
+  </si>
+  <si>
     <t>David Johnson (4)</t>
   </si>
   <si>
@@ -1649,9 +1655,6 @@
     <t>Ty Montgomery (15)</t>
   </si>
   <si>
-    <t>Justin Jefferson (9)</t>
-  </si>
-  <si>
     <t>Daniel Carlson (15)</t>
   </si>
   <si>
@@ -1724,9 +1727,6 @@
     <t>Christian Kirk (13)</t>
   </si>
   <si>
-    <t>Kyler Murray (7)</t>
-  </si>
-  <si>
     <t>Mike Davis (15)</t>
   </si>
   <si>
@@ -1938,18 +1938,6 @@
   </si>
   <si>
     <t>2022 Keepers</t>
-  </si>
-  <si>
-    <t>Chase Claypool</t>
-  </si>
-  <si>
-    <t>Odell Beckham</t>
-  </si>
-  <si>
-    <t>Darrell Henderson (15)</t>
-  </si>
-  <si>
-    <t>Marvin Jones (15)</t>
   </si>
 </sst>
 </file>
@@ -2637,13 +2625,11 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -3164,25 +3150,31 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="hair">
+          <color auto="1"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3207,13 +3199,11 @@
         <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -3221,13 +3211,19 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
+      <border>
+        <left style="hair">
+          <color auto="1"/>
+        </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3366,21 +3362,25 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border>
         <left style="medium">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top/>
-        <bottom/>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3389,13 +3389,11 @@
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </font>
     </dxf>
   </dxfs>
@@ -3837,22 +3835,21 @@
   <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -4864,118 +4861,118 @@
         <v>209</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>278</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="B29" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="C29" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="D29" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="E29" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="F29" s="30" t="s">
         <v>283</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>284</v>
       </c>
       <c r="G29" s="30" t="s">
         <v>217</v>
       </c>
       <c r="H29" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="I29" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="J29" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="K29" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="L29" s="33" t="s">
         <v>288</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="C30" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="D30" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="E30" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="F30" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="G30" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="H30" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="H30" s="30" t="s">
+      <c r="I30" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="J30" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="K30" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="K30" s="30" t="s">
+      <c r="L30" s="33" t="s">
         <v>300</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31" s="30" t="s">
         <v>302</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>303</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>224</v>
       </c>
       <c r="D31" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E31" s="30" t="s">
         <v>304</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>305</v>
       </c>
       <c r="F31" s="30" t="s">
         <v>202</v>
       </c>
       <c r="G31" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="H31" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="H31" s="30" t="s">
+      <c r="I31" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="J31" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="K31" s="30" t="s">
         <v>309</v>
-      </c>
-      <c r="K31" s="30" t="s">
-        <v>310</v>
       </c>
       <c r="L31" s="33" t="s">
         <v>222</v>
@@ -4983,16 +4980,16 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="C32" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="C32" s="30" t="s">
+      <c r="D32" s="30" t="s">
         <v>313</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>314</v>
       </c>
       <c r="E32" s="30" t="s">
         <v>203</v>
@@ -5001,171 +4998,171 @@
         <v>204</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H32" s="30" t="s">
         <v>200</v>
       </c>
       <c r="I32" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="J32" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="K32" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="K32" s="30" t="s">
+      <c r="L32" s="33" t="s">
         <v>318</v>
-      </c>
-      <c r="L32" s="33" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="B33" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="C33" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="D33" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="E33" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="F33" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="G33" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="H33" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="I33" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="J33" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="J33" s="30" t="s">
+      <c r="K33" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="L33" s="33" t="s">
         <v>330</v>
-      </c>
-      <c r="L33" s="33" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B34" s="30" t="s">
         <v>227</v>
       </c>
       <c r="C34" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="D34" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="E34" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="F34" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="G34" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="H34" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="I34" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="J34" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="J34" s="30" t="s">
+      <c r="K34" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="K34" s="30" t="s">
+      <c r="L34" s="33" t="s">
         <v>341</v>
-      </c>
-      <c r="L34" s="33" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" s="30" t="s">
         <v>343</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="C35" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="D35" s="30" t="s">
         <v>345</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="E35" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="F35" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="G35" s="30" t="s">
         <v>348</v>
       </c>
-      <c r="G35" s="30" t="s">
+      <c r="H35" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="H35" s="30" t="s">
+      <c r="I35" s="30" t="s">
         <v>350</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>351</v>
       </c>
       <c r="J35" s="30" t="s">
         <v>228</v>
       </c>
       <c r="K35" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="L35" s="33" t="s">
         <v>352</v>
-      </c>
-      <c r="L35" s="33" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="B36" s="30" t="s">
         <v>354</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="C36" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="D36" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="D36" s="30" t="s">
+      <c r="E36" s="30" t="s">
         <v>357</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="F36" s="30" t="s">
         <v>358</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="G36" s="30" t="s">
         <v>359</v>
       </c>
-      <c r="G36" s="30" t="s">
+      <c r="H36" s="30" t="s">
         <v>360</v>
       </c>
-      <c r="H36" s="30" t="s">
+      <c r="I36" s="30" t="s">
         <v>361</v>
       </c>
-      <c r="I36" s="30" t="s">
+      <c r="J36" s="30" t="s">
         <v>362</v>
       </c>
-      <c r="J36" s="30" t="s">
+      <c r="K36" s="30" t="s">
         <v>363</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>364</v>
       </c>
       <c r="L36" s="33" t="s">
         <v>229</v>
@@ -5173,78 +5170,78 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="B37" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="C37" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="D37" s="30" t="s">
         <v>367</v>
       </c>
-      <c r="D37" s="30" t="s">
+      <c r="E37" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="E37" s="30" t="s">
+      <c r="F37" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="G37" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="G37" s="30" t="s">
+      <c r="H37" s="30" t="s">
         <v>371</v>
       </c>
-      <c r="H37" s="30" t="s">
+      <c r="I37" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="I37" s="30" t="s">
+      <c r="J37" s="30" t="s">
         <v>373</v>
       </c>
-      <c r="J37" s="30" t="s">
+      <c r="K37" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="K37" s="30" t="s">
+      <c r="L37" s="33" t="s">
         <v>375</v>
-      </c>
-      <c r="L37" s="33" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="B38" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="C38" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="D38" s="30" t="s">
+      <c r="E38" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="E38" s="30" t="s">
+      <c r="F38" s="30" t="s">
         <v>381</v>
       </c>
-      <c r="F38" s="30" t="s">
+      <c r="G38" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="G38" s="30" t="s">
+      <c r="H38" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="I38" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="J38" s="30" t="s">
         <v>385</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="K38" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="K38" s="30" t="s">
+      <c r="L38" s="33" t="s">
         <v>387</v>
-      </c>
-      <c r="L38" s="33" t="s">
-        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -5267,22 +5264,22 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.42578125" bestFit="1" customWidth="1"/>
@@ -5290,7 +5287,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -5333,7 +5330,7 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
@@ -5371,13 +5368,13 @@
         <v>31</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K3" s="23" t="s">
         <v>28</v>
@@ -5394,7 +5391,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>635</v>
+        <v>392</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>44</v>
@@ -5970,7 +5967,7 @@
       </c>
       <c r="K19" s="8"/>
       <c r="L19" s="9" t="s">
-        <v>118</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -5984,11 +5981,11 @@
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="12" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -6002,11 +5999,11 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K21" s="14"/>
       <c r="L21" s="22" t="s">
-        <v>634</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
@@ -6054,7 +6051,7 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K23" t="s">
         <v>13</v>
@@ -6065,352 +6062,352 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F24" s="35" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L24" s="35" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>474</v>
+        <v>235</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>247</v>
       </c>
       <c r="H25" s="30" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="J25" s="30" t="s">
         <v>459</v>
       </c>
       <c r="K25" s="30" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="31" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G26" s="31" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H26" s="31" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B27" s="30" t="s">
         <v>239</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G27" s="30" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K27" s="30" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G28" s="30" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="K28" s="30" t="s">
-        <v>636</v>
+        <v>517</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G29" s="30" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="J29" s="30" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="K29" s="30" t="s">
         <v>244</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>246</v>
       </c>
       <c r="G30" s="30" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J30" s="30" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>637</v>
+        <v>309</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>537</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G31" s="30" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H31" s="30" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="J31" s="30" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F32" s="30" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="G32" s="30" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J32" s="30" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L32" s="31" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>562</v>
+        <v>460</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>231</v>
@@ -6472,7 +6469,7 @@
         <v>578</v>
       </c>
       <c r="J34" s="30" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K34" s="30" t="s">
         <v>579</v>
@@ -6483,7 +6480,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B35" s="30" t="s">
         <v>580</v>
@@ -6586,7 +6583,7 @@
         <v>606</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K37" s="30" t="s">
         <v>607</v>
@@ -6627,7 +6624,7 @@
         <v>618</v>
       </c>
       <c r="K38" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L38" s="31" t="s">
         <v>619</v>
